--- a/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
+++ b/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Blog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Writes_and_Wrongs/writes_and_wrongs/_posts/2022-05-03-good-eatins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5A8699-E397-A340-8809-DB716585C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3314551-ED04-5940-B12E-5131E5C2BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18660" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>BBQ New Orleans Style Shrimp + Ceviche</t>
+  </si>
+  <si>
+    <t>Neuse River Brewing</t>
+  </si>
+  <si>
+    <t>Neuse River Burger</t>
+  </si>
+  <si>
+    <t>Brassiere/Burgers</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,6 +1176,26 @@
         <v>-78.647649510751805</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>35.804569999999998</v>
+      </c>
+      <c r="F28">
+        <v>-78.632499999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
+++ b/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Writes_and_Wrongs/writes_and_wrongs/_posts/2022-05-03-good-eatins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Jake_Ford_Blog/_posts/2022-05-03-good-eatins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3314551-ED04-5940-B12E-5131E5C2BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7531D03-86C2-DB4F-93B7-06193D866B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18660" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>Brassiere/Burgers</t>
+  </si>
+  <si>
+    <t>Krill</t>
+  </si>
+  <si>
+    <t>Crab Khao Soi, Crispy whole fried fish</t>
+  </si>
+  <si>
+    <t>East Asian</t>
+  </si>
+  <si>
+    <t>Pizzeria Mercato</t>
   </si>
 </sst>
 </file>
@@ -335,9 +347,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -622,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,10 +680,10 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>36.075116000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>-79.814146600000001</v>
       </c>
     </row>
@@ -689,10 +700,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>36.0004037</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>-78.908343700000003</v>
       </c>
     </row>
@@ -709,10 +720,10 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>35.996805500000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>-78.904796000000005</v>
       </c>
     </row>
@@ -729,10 +740,10 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>35.997421299999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>-78.901237300000005</v>
       </c>
     </row>
@@ -749,10 +760,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>35.997530900000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>-78.900978800000004</v>
       </c>
     </row>
@@ -769,10 +780,10 @@
       <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>36.087108000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>-79.1031969</v>
       </c>
     </row>
@@ -789,10 +800,10 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>36.017813699999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>-78.890404899999993</v>
       </c>
     </row>
@@ -809,10 +820,10 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>35.819378100000002</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>-78.8288072</v>
       </c>
     </row>
@@ -829,10 +840,10 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>35.789540799999997</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>-78.780187299999994</v>
       </c>
     </row>
@@ -849,10 +860,10 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>36.037952799999999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>-78.930354800000003</v>
       </c>
     </row>
@@ -869,10 +880,10 @@
       <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>36.020036699999999</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>-78.890254100000007</v>
       </c>
     </row>
@@ -889,10 +900,10 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>36.011507979731697</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>-78.9221750870406</v>
       </c>
     </row>
@@ -903,16 +914,16 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>36.041552644282604</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>-78.928357785732501</v>
       </c>
     </row>
@@ -929,10 +940,10 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>36.010695094566302</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>-78.922313444712103</v>
       </c>
     </row>
@@ -946,13 +957,13 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>36.004542196078098</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>-78.900137174504295</v>
       </c>
     </row>
@@ -969,10 +980,10 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>36.0119148261414</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>-78.929515726985997</v>
       </c>
     </row>
@@ -989,10 +1000,10 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>36.040532585695701</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>-78.957696444724405</v>
       </c>
     </row>
@@ -1009,10 +1020,10 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>35.788725654250698</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>-78.634372949727293</v>
       </c>
     </row>
@@ -1029,10 +1040,10 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>35.953205834578803</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>-79.157072740958299</v>
       </c>
     </row>
@@ -1049,10 +1060,10 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>36.014555890020098</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>-78.921496526986004</v>
       </c>
     </row>
@@ -1069,10 +1080,10 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>35.965981916590998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>-78.945963965615306</v>
       </c>
     </row>
@@ -1089,10 +1100,10 @@
       <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>35.966638835197998</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>-78.946126544038094</v>
       </c>
     </row>
@@ -1109,10 +1120,10 @@
       <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>35.98218312721</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>-78.877239100180304</v>
       </c>
     </row>
@@ -1129,10 +1140,10 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>35.8974165430838</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>-78.872526115339994</v>
       </c>
     </row>
@@ -1149,10 +1160,10 @@
       <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>35.777919772553901</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>-78.905336444831505</v>
       </c>
     </row>
@@ -1194,6 +1205,46 @@
       </c>
       <c r="F28">
         <v>-78.632499999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>35.990535051549003</v>
+      </c>
+      <c r="F29">
+        <v>-78.896205357373006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30">
+        <v>35.911970156088501</v>
+      </c>
+      <c r="F30">
+        <v>-79.076000725755407</v>
       </c>
     </row>
   </sheetData>
